--- a/Bachelor/Bachelor-Arbeit Zeitplan.xlsx
+++ b/Bachelor/Bachelor-Arbeit Zeitplan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="28515" windowHeight="12855"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="28515" windowHeight="12855" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitspakete" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="72">
   <si>
     <t>Webinterface für den Datenbankzugriff</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Zugehörige Software für den Rechner</t>
   </si>
   <si>
-    <t>(Software für Pipettenkalibrierungen)</t>
-  </si>
-  <si>
     <t>Änderung der Datenbankstruktur</t>
   </si>
   <si>
@@ -90,39 +87,6 @@
     <t>W13</t>
   </si>
   <si>
-    <t>W14</t>
-  </si>
-  <si>
-    <t>W15</t>
-  </si>
-  <si>
-    <t>W16</t>
-  </si>
-  <si>
-    <t>W17</t>
-  </si>
-  <si>
-    <t>W18</t>
-  </si>
-  <si>
-    <t>W19</t>
-  </si>
-  <si>
-    <t>W20</t>
-  </si>
-  <si>
-    <t>W21</t>
-  </si>
-  <si>
-    <t>W22</t>
-  </si>
-  <si>
-    <t>W23</t>
-  </si>
-  <si>
-    <t>Reserve (2 Wochen Urlaub geplant)</t>
-  </si>
-  <si>
     <t>Bachelorarbeit verfassen</t>
   </si>
   <si>
@@ -147,12 +111,6 @@
     <t>Datenbank für Chemikalienverwaltung</t>
   </si>
   <si>
-    <t>Anpassung der Datenbank an die neuen Features: Rezepte aus Chemikalien definierbar (evtl. mit Zugangsbeschränkungen), Verdünnungen, evtl. Mischungen</t>
-  </si>
-  <si>
-    <t>Möglichkeit zum Definieren und Bearbeiten von Rezepten, überarbeitetes Design, Interaktivität erhöhen</t>
-  </si>
-  <si>
     <t>PHP-Interface für den DB-Zugriff druch die Wäge-Software</t>
   </si>
   <si>
@@ -165,9 +123,6 @@
     <t>Stoff- (nicht Chargenspezifische) Statistiken zum Verbrauch mit Datum, Menge, evtl. Filter wie Bearbeiter oder Verbrauch großer Mengen</t>
   </si>
   <si>
-    <t>Automatische Prüfung des aktuellen Bestandes eines Stoffs und Abgleich mit Standardrezepten. Warnung, wenn Rezepte ausgewählt werden und nicht alle Stoffe auf Lager sind</t>
-  </si>
-  <si>
     <t>Stoffspezifische Grenzwerte festlegbar, bei deren Unterschreitung eine Warnung erfolgen soll. Warnung entweder per Mail an Laborleiter oder als PopUp beim Öffnen der Datenbank</t>
   </si>
   <si>
@@ -177,12 +132,6 @@
     <t>Verbindung zwischen Datenbank und Waagen einrichten, über http-Requests oder direkte Datenbankanfragen. Nutzung der im Webinterface bereitgestellten Schnittstelle</t>
   </si>
   <si>
-    <t>Software zur Auswahl des Stoffes, Auswahl von Rezepten und Eingabe von Messwerten. Aus Waagen ausgelesene Messwerte sollen austomatisch in Eingabemaske übernommen, aber nicht abgesendet werden. Möglichkeit zur Aktivierung des Barcode-Scans, sofern Kamera vorhanden. Software soll sowohl mit Windows als auch mit Linux kompatibel sein, wahrscheinlich C#</t>
-  </si>
-  <si>
-    <t>Kleine Rechnersoftware, die die Kalibrierung von Pipetten durch ein automatisches Eintragen in das Kalibrierprotokoll oder eine CSV-Datei vereinfachen soll. Nicht Teil der Bachelorarbeit!</t>
-  </si>
-  <si>
     <t>Anbindung von Kern-Waagen mit COM-Port</t>
   </si>
   <si>
@@ -226,6 +175,63 @@
   </si>
   <si>
     <t xml:space="preserve">s. O. </t>
+  </si>
+  <si>
+    <t>Anpassung der Datenbank an die neuen Features: Rezepte aus Chemikalien definierbar, Zugangsbeschränkungen</t>
+  </si>
+  <si>
+    <t>Möglichkeit zum Definieren und Bearbeiten von Rezepten</t>
+  </si>
+  <si>
+    <t>Automatische Prüfung des aktuellen Bestandes eines Stoffs, (Abgleich mit Standardrezepten. Warnung, wenn Rezepte ausgewählt werden und nicht alle Stoffe auf Lager sind)</t>
+  </si>
+  <si>
+    <t>Benutzerfreundlichkeit erhöhen durch Nutzung von Barcode/QR-Code Scans</t>
+  </si>
+  <si>
+    <t>Software zur Auswahl des Stoffes, Auswahl von Rezepten und Eingabe von Messwerten. Aus Waagen ausgelesene Messwerte sollen austomatisch in Eingabemaske übernommen, aber nicht abgesendet werden. Software soll sowohl mit Windows als auch mit Linux kompatibel sein, wahrscheinlich C#</t>
+  </si>
+  <si>
+    <t>Entfällt nach aktueller Planung</t>
+  </si>
+  <si>
+    <t>24.04-28.04</t>
+  </si>
+  <si>
+    <t>01.05-05.05</t>
+  </si>
+  <si>
+    <t>08.05-12.05</t>
+  </si>
+  <si>
+    <t>15.05-19.05</t>
+  </si>
+  <si>
+    <t>22.05-26.05</t>
+  </si>
+  <si>
+    <t>29.05-02.06</t>
+  </si>
+  <si>
+    <t>05.06-09.06</t>
+  </si>
+  <si>
+    <t>12.06-16.06</t>
+  </si>
+  <si>
+    <t>19.06-23.06</t>
+  </si>
+  <si>
+    <t>26.06-30.06</t>
+  </si>
+  <si>
+    <t>03.07-07.07</t>
+  </si>
+  <si>
+    <t>10.07-14.07</t>
+  </si>
+  <si>
+    <t>17.07-21.07</t>
   </si>
 </sst>
 </file>
@@ -235,7 +241,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,6 +253,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -272,7 +285,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -320,73 +333,7 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -475,38 +422,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -519,26 +447,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -841,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,166 +797,172 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="26"/>
-    </row>
-    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>43</v>
+      <c r="A2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="26"/>
-    </row>
-    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B5" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>44</v>
+      <c r="B4" s="13"/>
+      <c r="C4" s="11"/>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="26" t="s">
-        <v>45</v>
+      <c r="C6" s="11" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
     </row>
     <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B8" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>46</v>
+      <c r="A8" s="26"/>
+      <c r="B8" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
     </row>
     <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B10" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>48</v>
+      <c r="A10" s="26"/>
+      <c r="B10" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>69</v>
+      <c r="B12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="26"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="B14" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>49</v>
+      <c r="B14" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="B16" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>50</v>
+      <c r="B16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="27"/>
+        <v>38</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="12"/>
     </row>
     <row r="18" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="27" t="s">
-        <v>51</v>
+      <c r="C18" s="12" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="B20" s="31" t="s">
+      <c r="C19" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="B20" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="B21" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+      <c r="C20" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="15"/>
+      <c r="C22" s="12"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1025,10 +972,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X14"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,416 +983,246 @@
     <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="23">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="23">
+      <c r="J2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="23">
+      <c r="K2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="23">
+      <c r="L2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="23">
+      <c r="M2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="23">
+      <c r="N2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="23">
-        <v>23</v>
-      </c>
-      <c r="I1" s="23">
-        <v>24</v>
-      </c>
-      <c r="J1" s="23">
-        <v>25</v>
-      </c>
-      <c r="K1" s="23">
-        <v>26</v>
-      </c>
-      <c r="L1" s="23">
-        <v>27</v>
-      </c>
-      <c r="M1" s="23">
-        <v>28</v>
-      </c>
-      <c r="N1" s="23">
-        <v>29</v>
-      </c>
-      <c r="O1" s="23">
-        <v>30</v>
-      </c>
-      <c r="P1" s="23">
-        <v>31</v>
-      </c>
-      <c r="Q1" s="23">
-        <v>32</v>
-      </c>
-      <c r="R1" s="23">
-        <v>33</v>
-      </c>
-      <c r="S1" s="23">
-        <v>34</v>
-      </c>
-      <c r="T1" s="23">
-        <v>35</v>
-      </c>
-      <c r="U1" s="23">
-        <v>36</v>
-      </c>
-      <c r="V1" s="23">
-        <v>37</v>
-      </c>
-      <c r="W1" s="23">
-        <v>38</v>
-      </c>
-      <c r="X1" s="24">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="R2" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="S2" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="T2" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="U2" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="V2" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="W2" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="X2" s="22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="14"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="15"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="14"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="B5" s="31"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="16"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="15"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="14"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="16"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="17"/>
-    </row>
-    <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="20"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="30"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="22"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
       <c r="C13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1455,10 +1232,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1468,55 +1245,60 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="40">
+        <v>42</v>
+      </c>
+      <c r="B2" s="24">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>62</v>
+        <v>46</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="39">
+        <v>51</v>
+      </c>
+      <c r="B4" s="23">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="39">
+        <v>49</v>
+      </c>
+      <c r="B6" s="23">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
